--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
@@ -549,10 +549,10 @@
         <v>0.234979</v>
       </c>
       <c r="I2">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J2">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>0.1825383710471111</v>
+        <v>0.4779383306892223</v>
       </c>
       <c r="R2">
-        <v>1.642845339424</v>
+        <v>4.301444976203</v>
       </c>
       <c r="S2">
-        <v>0.01761298772422988</v>
+        <v>0.09849779421451409</v>
       </c>
       <c r="T2">
-        <v>0.01761298772422988</v>
+        <v>0.09849779421451407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.234979</v>
       </c>
       <c r="I3">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J3">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>2.285465516992333</v>
+        <v>2.285465516992334</v>
       </c>
       <c r="R3">
         <v>20.569189652931</v>
       </c>
       <c r="S3">
-        <v>0.2205228186491682</v>
+        <v>0.4710091192151276</v>
       </c>
       <c r="T3">
-        <v>0.2205228186491682</v>
+        <v>0.4710091192151275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>0.234979</v>
       </c>
       <c r="I4">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J4">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>0.03084407458577778</v>
+        <v>0.01148608682533333</v>
       </c>
       <c r="R4">
-        <v>0.277596671272</v>
+        <v>0.103374781428</v>
       </c>
       <c r="S4">
-        <v>0.002976121151559562</v>
+        <v>0.002367155224441254</v>
       </c>
       <c r="T4">
-        <v>0.002976121151559562</v>
+        <v>0.002367155224441254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.234979</v>
       </c>
       <c r="I5">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J5">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>1.697774865944889</v>
+        <v>1.176684730607889</v>
       </c>
       <c r="R5">
-        <v>15.279973793504</v>
+        <v>10.590162575471</v>
       </c>
       <c r="S5">
-        <v>0.1638169974940543</v>
+        <v>0.2425016848588796</v>
       </c>
       <c r="T5">
-        <v>0.1638169974940543</v>
+        <v>0.2425016848588797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.234979</v>
       </c>
       <c r="I6">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J6">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>0.7636078621588889</v>
+        <v>0.4142601965842222</v>
       </c>
       <c r="R6">
-        <v>6.872470759429999</v>
+        <v>3.728341769258</v>
       </c>
       <c r="S6">
-        <v>0.07367993822437907</v>
+        <v>0.08537443635369214</v>
       </c>
       <c r="T6">
-        <v>0.07367993822437907</v>
+        <v>0.08537443635369213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.234979</v>
       </c>
       <c r="I7">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J7">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>0.0331304985821111</v>
+        <v>0.003936524860666667</v>
       </c>
       <c r="R7">
-        <v>0.298174487239</v>
+        <v>0.035428723746</v>
       </c>
       <c r="S7">
-        <v>0.00319673645314681</v>
+        <v>0.0008112741555738286</v>
       </c>
       <c r="T7">
-        <v>0.00319673645314681</v>
+        <v>0.0008112741555738286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H8">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I8">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J8">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>0.1963247454506667</v>
+        <v>0.05277317516911112</v>
       </c>
       <c r="R8">
-        <v>1.766922709056</v>
+        <v>0.474958576522</v>
       </c>
       <c r="S8">
-        <v>0.01894322443960405</v>
+        <v>0.01087596665527465</v>
       </c>
       <c r="T8">
-        <v>0.01894322443960406</v>
+        <v>0.01087596665527465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H9">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I9">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J9">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
-        <v>2.458077352646</v>
+        <v>0.2523573949326667</v>
       </c>
       <c r="R9">
-        <v>22.122696173814</v>
+        <v>2.271216554394</v>
       </c>
       <c r="S9">
-        <v>0.2371780025701433</v>
+        <v>0.05200806287862193</v>
       </c>
       <c r="T9">
-        <v>0.2371780025701433</v>
+        <v>0.05200806287862192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.008648666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.025946</v>
+      </c>
+      <c r="I10">
+        <v>0.0994385359777714</v>
+      </c>
+      <c r="J10">
+        <v>0.09943853597777139</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.084242</v>
-      </c>
-      <c r="H10">
-        <v>0.252726</v>
-      </c>
-      <c r="I10">
-        <v>0.5181944003034622</v>
-      </c>
-      <c r="J10">
-        <v>0.5181944003034622</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>0.03317360101866666</v>
+        <v>0.001268275074666667</v>
       </c>
       <c r="R10">
-        <v>0.298562409168</v>
+        <v>0.011414475672</v>
       </c>
       <c r="S10">
-        <v>0.00320089537426341</v>
+        <v>0.000261377439913153</v>
       </c>
       <c r="T10">
-        <v>0.00320089537426341</v>
+        <v>0.000261377439913153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H11">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I11">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J11">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>1.826000837397333</v>
+        <v>0.1299276191504445</v>
       </c>
       <c r="R11">
-        <v>16.434007536576</v>
+        <v>1.169348572354</v>
       </c>
       <c r="S11">
-        <v>0.1761894233471177</v>
+        <v>0.02677664265891204</v>
       </c>
       <c r="T11">
-        <v>0.1761894233471177</v>
+        <v>0.02677664265891204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H12">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I12">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J12">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>0.8212800317133333</v>
+        <v>0.04574193889911111</v>
       </c>
       <c r="R12">
-        <v>7.39152028542</v>
+        <v>0.411677450092</v>
       </c>
       <c r="S12">
-        <v>0.07924468172770514</v>
+        <v>0.009426906768829967</v>
       </c>
       <c r="T12">
-        <v>0.07924468172770514</v>
+        <v>0.009426906768829965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H13">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I13">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J13">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>0.03563270924066666</v>
+        <v>0.0004346646893333333</v>
       </c>
       <c r="R13">
-        <v>0.320694383166</v>
+        <v>0.003911982204</v>
       </c>
       <c r="S13">
-        <v>0.003438172844628587</v>
+        <v>8.957957621965606E-05</v>
       </c>
       <c r="T13">
-        <v>0.003438172844628588</v>
+        <v>8.957957621965606E-05</v>
       </c>
     </row>
   </sheetData>
